--- a/Ejercicio5 (Fibonacci)/fibonacci_time_comparison.xlsx
+++ b/Ejercicio5 (Fibonacci)/fibonacci_time_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Checha\Escritorio\GitHub\Algoritmos\Ejercicio5 (Fibonacci)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77381502-696B-45C2-AD94-EE5472FFEB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754CA403-A7DE-46BC-844A-8939F4A2ABA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,15 +57,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,12 +85,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1737,16 +1767,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>484239</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>67720</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>398514</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>153445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>179439</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>67720</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>93714</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>153445</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2063,559 +2093,564 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>3.0000228434801102E-7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>2.199987648054957E-6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>6.0000456869602203E-7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>1.1999800335615869E-6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>6.0000456869602203E-7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>7.0000533014535904E-7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>8.0000609159469604E-7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>5.0000380724668503E-7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1.1999800335615869E-6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>6.0000456869602203E-7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>2.0000152289867401E-6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>7.0000533014535904E-7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>2.799992216750979E-6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>7.0000533014535904E-7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>4.5000051613897094E-6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>8.0000609159469604E-7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>9.0999819803982973E-6</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>8.0000609159469604E-7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>1.200000406242907E-5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>9.0000685304403305E-7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>1.9300001440569758E-5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>8.9997774921357632E-7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>3.1500007025897503E-5</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>1.0000076144933701E-6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>4.9199996283277869E-5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>1.0999792721122499E-6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>7.8799988841637969E-5</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>1.3000098988413811E-6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>1.2489999062381679E-4</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>2.3000175133347511E-6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>1.991000026464462E-4</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>1.3999815564602609E-6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>3.3019998227246111E-4</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>1.4000106602907181E-6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>5.2249999134801328E-4</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>5.5000127758830794E-6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>8.8109998614527285E-4</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>1.5000114217400551E-6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>1.4507000159937891E-3</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>1.5999830793589349E-6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>2.8056000010110438E-3</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>1.5999830793589349E-6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>7.4403999897185713E-3</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>5.0000089686363944E-6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>7.864700019126758E-3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>1.379998866468668E-5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>1.0025200026575479E-2</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>8.600007276982069E-6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>2.335839997977018E-2</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>2.2000167518854141E-6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>4.398740001488477E-2</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>6.7999935708940029E-6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>6.9511600013356656E-2</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>4.4000043999403724E-6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>0.1174694999936037</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>2.480001421645284E-5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>0.19586060001165609</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>1.0599993402138351E-5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>0.30078449999564327</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>1.380001776851714E-5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>0.46194120001746342</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>9.9999888334423304E-6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>0.77210070000728592</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>9.6999865490943193E-6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>1.2535172999778299</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>1.0200019460171459E-5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>2.1307244999916288</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>3.269998705945909E-5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>3.3779358000028878</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>1.1199997970834369E-5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>5.4439360000251327</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>1.3699987903237339E-5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>7.9798321999842301</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>8.300004992634058E-6</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>11.93720990000293</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>9.200011845678091E-6</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>21.198642900009869</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>9.100011084228754E-6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>32.798359900014468</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>9.1999827418476343E-6</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>52.307549499993911</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>1.200000406242907E-5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>89.610687300009886</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>1.339998561888933E-5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>142.22480029999861</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>1.09999964479357E-5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>230.88850709999679</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>1.2100004823878409E-5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>373.98404239999951</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>1.1700001778081059E-5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>573.99438079999527</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>8.8999804574996233E-6</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>948.98502270001336</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>1.2100004823878409E-5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>1577.09101210002</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>1.270000939257443E-5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>2447.8693410000119</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>1.280001015402377E-5</v>
       </c>
     </row>
